--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MAPE</t>
+          <t>sMAPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>RRMSE</t>
         </is>
       </c>
     </row>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08397454463076008</v>
+        <v>4.068830693138959</v>
       </c>
       <c r="C2" t="n">
         <v>0.2846891972479788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3655222813644092</v>
+        <v>0.1023685980730129</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1026246696525275</v>
+        <v>5.083148300695439</v>
       </c>
       <c r="C3" t="n">
         <v>0.3536459581244753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4593849542654244</v>
+        <v>0.1286558881402452</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08217184897100913</v>
+        <v>3.976966123543065</v>
       </c>
       <c r="C4" t="n">
         <v>0.2782965699081589</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3605497008749695</v>
+        <v>0.1009759713592349</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08626241185751066</v>
+        <v>4.213088531465095</v>
       </c>
       <c r="C5" t="n">
         <v>0.2954622873376688</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3716904927300527</v>
+        <v>0.1040960745698272</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08204286840888127</v>
+        <v>3.995360575415133</v>
       </c>
       <c r="C6" t="n">
         <v>0.2804984638475174</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3505975630106953</v>
+        <v>0.09818876397698667</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09709077482068704</v>
+        <v>4.705106757916377</v>
       </c>
       <c r="C7" t="n">
         <v>0.333073377996609</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4213476427694312</v>
+        <v>0.1180031141485296</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1023887105888044</v>
+        <v>5.071408704943391</v>
       </c>
       <c r="C8" t="n">
         <v>0.3528072597246075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4583673068130129</v>
+        <v>0.1283708846032595</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1038486647202979</v>
+        <v>5.151527658234848</v>
       </c>
       <c r="C9" t="n">
         <v>0.3582048917794047</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4632503307418028</v>
+        <v>0.1297384300018089</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01425862136944517</v>
+        <v>4.192653541224504</v>
       </c>
       <c r="C10" t="n">
         <v>0.06568163973402837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07283074480543644</v>
+        <v>0.1042624139168216</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.169914229401056</v>
+        <v>7.766722198014016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5784361470312629</v>
+        <v>0.5850461936064607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6248292735573435</v>
+        <v>0.1762986023209905</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1916088225715175</v>
+        <v>8.623761177600265</v>
       </c>
       <c r="C12" t="n">
         <v>0.6582275386209842</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6916054694601614</v>
+        <v>0.1936918375098496</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1661532643349207</v>
+        <v>7.51736349156496</v>
       </c>
       <c r="C13" t="n">
         <v>0.5639885403293258</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6157304442875698</v>
+        <v>0.1724421891254076</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.068830693138959</v>
+        <v>4.068830693202703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2846891972479788</v>
+        <v>0.2846891972525283</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1023685980730129</v>
+        <v>0.1023685980744315</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.083148300695439</v>
+        <v>5.083148300696746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3536459581244753</v>
+        <v>0.3536459581245627</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1286558881402452</v>
+        <v>0.1286558881402818</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.976966123543065</v>
+        <v>3.97696612352228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2782965699081589</v>
+        <v>0.2782965699066879</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1009759713592349</v>
+        <v>0.1009759713586404</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.213088531465095</v>
+        <v>4.212972825304513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2954622873376688</v>
+        <v>0.2954519958542526</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1040960745698272</v>
+        <v>0.1040797899203333</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.995360575415133</v>
+        <v>4.02275597371966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2804984638475174</v>
+        <v>0.2825126290016096</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09818876397698667</v>
+        <v>0.09916822418588372</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.705106757916377</v>
+        <v>4.677454828280479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.333073377996609</v>
+        <v>0.3311414213520718</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1180031141485296</v>
+        <v>0.1176226855901783</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.071408704943391</v>
+        <v>5.071408704942506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3528072597246075</v>
+        <v>0.3528072597245367</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1283708846032595</v>
+        <v>0.1283708846032647</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.151527658234848</v>
+        <v>5.151674700945377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3582048917794047</v>
+        <v>0.3582152700759543</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1297384300018089</v>
+        <v>0.1297432719599647</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.192653541224504</v>
+        <v>5.003067501123882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06568163973402837</v>
+        <v>0.3444388775114057</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1042624139168216</v>
+        <v>0.112452724956303</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.766722198014016</v>
+        <v>7.745010453051086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5850461936064607</v>
+        <v>0.5832329693254552</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1762986023209905</v>
+        <v>0.1760351990448753</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.623761177600265</v>
+        <v>7.696145255010587</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6582275386209842</v>
+        <v>0.5790715605864598</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1936918375098496</v>
+        <v>0.1752290046625931</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.51736349156496</v>
+        <v>8.569698593003306</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5639885403293258</v>
+        <v>0.6535883208863547</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1724421891254076</v>
+        <v>0.1928678058139135</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
+++ b/Modelos em Python/1 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.745010453051086</v>
+        <v>7.742312455988146</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5832329693254552</v>
+        <v>0.5830045481297386</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1760351990448753</v>
+        <v>0.1760103561481834</v>
       </c>
     </row>
     <row r="12">
